--- a/data/trans_orig/DUR_SUEÑO_FINDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_FINDE-Clase-trans_orig.xlsx
@@ -521,7 +521,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Promedio de horas de sueño/finde</t>
+          <t>Promedio de horas de sueño/finde (tasa de respuesta: 98,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DUR_SUEÑO_FINDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_FINDE-Clase-trans_orig.xlsx
@@ -601,7 +601,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>7,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,67</t>
+          <t>7,49; 7,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,46</t>
+          <t>7,23; 7,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,61; 7,82</t>
+          <t>7,67; 7,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,46</t>
+          <t>7,24; 7,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,71</t>
+          <t>7,63; 7,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,43</t>
+          <t>7,25; 7,41</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,54</t>
+          <t>7,62</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 7,93</t>
+          <t>7,66; 8,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,59</t>
+          <t>7,32; 7,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,72</t>
+          <t>7,46; 7,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,41</t>
+          <t>7,16; 7,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,76</t>
+          <t>7,61; 7,85</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,48</t>
+          <t>7,28; 7,47</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>7,55</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,28; 7,58</t>
+          <t>7,23; 7,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,03; 9,6</t>
+          <t>7,04; 9,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,24; 7,79</t>
+          <t>7,28; 7,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,38</t>
+          <t>6,98; 7,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,6</t>
+          <t>7,31; 7,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 9,43</t>
+          <t>7,08; 9,41</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,59</t>
+          <t>7,69</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>7,51</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,79</t>
+          <t>7,55; 7,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,52</t>
+          <t>7,25; 7,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,45</t>
+          <t>7,17; 7,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 7,27</t>
+          <t>6,38; 7,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,55</t>
+          <t>7,4; 7,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,62; 7,35</t>
+          <t>6,56; 7,35</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>7,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,28</t>
+          <t>7,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>7,4</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -959,27 +959,27 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,84</t>
+          <t>7,42; 7,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,51</t>
+          <t>7,08; 7,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,1; 7,44</t>
+          <t>7,1; 7,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,3</t>
+          <t>7,08; 7,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,53</t>
+          <t>7,27; 7,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>8,14</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>7,71</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1021,7 +1021,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,7</t>
+          <t>7,83</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 8,64</t>
+          <t>7,46; 8,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,69; 8,38</t>
+          <t>7,7; 8,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,7</t>
+          <t>7,5; 7,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,68</t>
+          <t>7,43; 7,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,87</t>
+          <t>7,64; 8,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,56; 7,82</t>
+          <t>7,57; 7,82</t>
         </is>
       </c>
     </row>
@@ -1081,27 +1081,27 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,67</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7,72</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7,2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>7,61</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,72</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>7,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,54; 7,68</t>
+          <t>7,6; 7,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,39; 8,58</t>
+          <t>7,39; 8,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 7,53</t>
+          <t>7,48; 7,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,34</t>
+          <t>6,83; 7,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,48; 7,59</t>
+          <t>7,56; 7,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 7,94</t>
+          <t>7,23; 7,96</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/DUR_SUEÑO_FINDE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/DUR_SUEÑO_FINDE-Clase-trans_orig.xlsx
@@ -549,32 +549,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
           <t>7,65</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>7,34</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,35</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,36</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>7,73</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7,26; 7,49</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>7,49; 7,76</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,23; 7,45</t>
-        </is>
-      </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>7,24; 7,45</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>7,67; 7,91</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7,24; 7,46</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>7,28; 7,43</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>7,63; 7,81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 7,41</t>
         </is>
       </c>
     </row>
@@ -681,32 +681,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,48</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>7,85</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,46</t>
-        </is>
-      </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>7,62</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>7,73</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,38</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7,35; 7,61</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>7,66; 8,01</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,32; 7,59</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
+          <t>7,16; 7,41</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>7,46; 7,78</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>7,16; 7,42</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>7,3; 7,48</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>7,61; 7,85</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,28; 7,47</t>
         </is>
       </c>
     </row>
@@ -761,32 +761,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,18</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>7,41</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,62</t>
-        </is>
-      </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>7,16</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>7,55</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>7,17</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>7,45</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>8,37</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>7,01; 7,33</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
           <t>7,23; 7,54</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,04; 9,58</t>
-        </is>
-      </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
+          <t>6,97; 7,36</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>7,28; 7,84</t>
         </is>
       </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,98; 7,41</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>7,03; 7,3</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>7,31; 7,59</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 9,41</t>
         </is>
       </c>
     </row>
@@ -841,32 +841,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,39</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>7,69</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,39</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>7,24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>7,34</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,83</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>7,51</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,08</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,27; 7,51</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
           <t>7,55; 7,84</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,25; 7,52</t>
-        </is>
-      </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>7,13; 7,36</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>7,17; 7,53</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,38; 7,28</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7,25; 7,41</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7,4; 7,63</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>6,56; 7,35</t>
         </is>
       </c>
     </row>
@@ -921,32 +921,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,25</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>7,67</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,29</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>7,21</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>7,3</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>7,19</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>7,23</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>7,44</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>7,06; 7,43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
           <t>7,42; 7,9</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 7,5</t>
-        </is>
-      </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>7,1; 7,33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>7,1; 7,5</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>7,08; 7,31</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>7,13; 7,32</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>7,27; 7,57</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>7,11; 7,33</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
           <t>8,14</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>7,56</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>7,71</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>7,55</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>7,69</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>7,83</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,69</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>7,74; 8,36</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>7,46; 8,42</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7,7; 8,37</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>7,44; 7,68</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>7,5; 7,93</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>7,43; 7,67</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>7,57; 7,81</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>7,64; 8,0</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,57; 7,82</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1081,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>7,67</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7,72</t>
-        </is>
-      </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>7,33</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>7,56</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>7,37</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>7,61</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,36; 7,48</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
           <t>7,6; 7,74</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 8,47</t>
-        </is>
-      </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>7,28; 7,38</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>7,48; 7,64</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>6,83; 7,34</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>7,33; 7,42</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>7,56; 7,66</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>7,23; 7,96</t>
         </is>
       </c>
     </row>
